--- a/Tabelka przejść.xlsx
+++ b/Tabelka przejść.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekrzkit\repo\DeterministicFiniteStateAutomaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC415D-05ED-4B0C-B55A-3FDBD9546A78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A24F74-F4A4-42AA-B706-646247911487}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E48B51E-5EAE-4000-9ACF-BED277BEB9D6}"/>
+    <workbookView xWindow="17940" yWindow="4710" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0E48B51E-5EAE-4000-9ACF-BED277BEB9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Na 4" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
   <si>
     <t>σ</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>BrakReszty</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>qBRPŁYW</t>
+  </si>
+  <si>
+    <t>qBRSAUNA</t>
+  </si>
+  <si>
+    <t>QR1PŁYW</t>
+  </si>
+  <si>
+    <t>QR2PŁYW</t>
+  </si>
+  <si>
+    <t>QR1SAUNA</t>
+  </si>
+  <si>
+    <t>QR2SAUNA</t>
+  </si>
+  <si>
+    <t>QR3SAUNA</t>
+  </si>
+  <si>
+    <t>QR4SAUNA</t>
+  </si>
+  <si>
+    <t>QR5SAUNA</t>
   </si>
 </sst>
 </file>
@@ -150,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,16 +188,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84BF7C6-B6D1-493C-AA22-216E925FB0FC}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,13 +1435,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D194490-2147-48C4-82CE-C704A92D88ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
